--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -49,157 +52,148 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>great</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>wife</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>ever</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -563,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,63 +626,87 @@
         <v>8</v>
       </c>
       <c r="B3">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>69</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="L3">
+        <v>87</v>
+      </c>
+      <c r="M3">
+        <v>87</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>0.2868217054263566</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>37</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>37</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>92</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>0.946236559139785</v>
-      </c>
-      <c r="L3">
-        <v>88</v>
-      </c>
-      <c r="M3">
-        <v>88</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,21 +718,21 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,21 +744,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8374613003095975</v>
+        <v>0.8544891640866873</v>
       </c>
       <c r="L6">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M6">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,21 +770,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7229437229437229</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,21 +796,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7142857142857143</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7111111111111111</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -835,16 +853,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -861,16 +879,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6847457627118644</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L11">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,21 +900,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12">
         <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,21 +926,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6457142857142857</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,21 +952,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6380417335473515</v>
+        <v>0.6474576271186441</v>
       </c>
       <c r="L14">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="M14">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>451</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6304347826086957</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>786</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>786</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6301369863013698</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>0.609375</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5982905982905983</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5915492957746479</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5857142857142857</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,47 +1160,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>0.546875</v>
+      </c>
+      <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>29</v>
-      </c>
-      <c r="K22">
-        <v>0.5421686746987951</v>
-      </c>
-      <c r="L22">
-        <v>45</v>
-      </c>
-      <c r="M22">
-        <v>45</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5288461538461539</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5029940119760479</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L24">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K25">
-        <v>0.49</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4887218045112782</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L26">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4861111111111111</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1298,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4615384615384616</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1324,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4397590361445783</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L29">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1350,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4074074074074074</v>
+        <v>0.4</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1376,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3693693693693694</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1402,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3627450980392157</v>
+        <v>0.377431906614786</v>
       </c>
       <c r="L32">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="M32">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1428,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3385214007782101</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L33">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1454,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>170</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3308270676691729</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L34">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1480,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3301369863013698</v>
+        <v>0.3273972602739726</v>
       </c>
       <c r="L35">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M35">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1506,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3093525179856115</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1532,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>0.277511961722488</v>
+        <v>0.2822966507177033</v>
       </c>
       <c r="L37">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M37">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1558,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2561894510226049</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L38">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1584,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>691</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2317880794701987</v>
+        <v>0.2551130247578041</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1610,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>116</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>0.219435736677116</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L40">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M40">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1636,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1960264900662252</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L41">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1662,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>607</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1892583120204604</v>
+        <v>0.20076726342711</v>
       </c>
       <c r="L42">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M42">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1688,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1580756013745704</v>
+        <v>0.1947019867549669</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="M43">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1714,47 +1732,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>245</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1411192214111922</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L44">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M44">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1333333333333333</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1766,47 +1784,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>234</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1324324324324324</v>
+        <v>0.125</v>
       </c>
       <c r="L46">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>321</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1318181818181818</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1818,38 +1836,38 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>382</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1143911439114391</v>
+        <v>0.1184510250569476</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>240</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K49">
         <v>0.0883054892601432</v>
@@ -1875,158 +1893,80 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K50">
-        <v>0.08771929824561403</v>
+        <v>0.08477011494252873</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>416</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K51">
-        <v>0.08743169398907104</v>
+        <v>0.06816059757236227</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>334</v>
+        <v>998</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K52">
-        <v>0.07476635514018691</v>
+        <v>0.03209019947961839</v>
       </c>
       <c r="L52">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="M52">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K53">
-        <v>0.07460545193687231</v>
-      </c>
-      <c r="L53">
-        <v>52</v>
-      </c>
-      <c r="M53">
-        <v>53</v>
-      </c>
-      <c r="N53">
-        <v>0.98</v>
-      </c>
-      <c r="O53">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54">
-        <v>0.05719557195571956</v>
-      </c>
-      <c r="L54">
-        <v>31</v>
-      </c>
-      <c r="M54">
-        <v>31</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K55">
-        <v>0.03732638888888889</v>
-      </c>
-      <c r="L55">
-        <v>43</v>
-      </c>
-      <c r="M55">
-        <v>48</v>
-      </c>
-      <c r="N55">
-        <v>0.9</v>
-      </c>
-      <c r="O55">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1109</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
